--- a/Homework/4_Measurements/USDA Soil Texture/Sample 1.1.xlsx
+++ b/Homework/4_Measurements/USDA Soil Texture/Sample 1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/jeffreycarvalho_arizona_edu/Documents/HWRS 563B Measurements/3_Day/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{58AE1647-EE8E-47CF-801C-2267FB2CC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE5F145-9352-4053-BFA4-1E134D3CC7DD}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{58AE1647-EE8E-47CF-801C-2267FB2CC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542CF1D5-5249-4DDA-BCEA-B999F308F46D}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="2370" windowWidth="28800" windowHeight="15345" xr2:uid="{7ECD7FC4-DDEF-4DAA-A193-EAE77382D94C}"/>
+    <workbookView xWindow="55170" yWindow="5850" windowWidth="19875" windowHeight="15345" xr2:uid="{7ECD7FC4-DDEF-4DAA-A193-EAE77382D94C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>SampleName</t>
   </si>
@@ -77,26 +77,50 @@
     <t>x</t>
   </si>
   <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.5</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>F1.1</t>
+  </si>
+  <si>
+    <t>F1.2</t>
+  </si>
+  <si>
+    <t>F1.3</t>
+  </si>
+  <si>
+    <t>F1.4</t>
+  </si>
+  <si>
+    <t>F1.5</t>
+  </si>
+  <si>
+    <t>L1.1</t>
+  </si>
+  <si>
+    <t>L1.2</t>
+  </si>
+  <si>
+    <t>L1.3</t>
+  </si>
+  <si>
+    <t>L1.4</t>
+  </si>
+  <si>
+    <t>L1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +133,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,270 +503,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2FDD37-B1BB-4F82-8AFF-ADFC7B9895C6}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="12" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>43</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>30</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>65</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>50</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>35</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -748,8 +879,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>